--- a/test/data/My_Resistor-0805.xlsx
+++ b/test/data/My_Resistor-0805.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J3"/>
+  <dimension ref="A1:K3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -441,45 +441,50 @@
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
+          <t>new_name</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
           <t>Reference</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
+      <c r="D1" s="1" t="inlineStr">
         <is>
           <t>Value</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
+      <c r="E1" s="1" t="inlineStr">
         <is>
           <t>Footprint</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>Datasheet</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>Description</t>
         </is>
       </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>Tolerance</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>Package</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
+      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>ki_keywords</t>
         </is>
       </c>
-      <c r="J1" s="1" t="inlineStr">
+      <c r="K1" s="1" t="inlineStr">
         <is>
           <t>ki_fp_filters</t>
         </is>
@@ -493,41 +498,46 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
+          <t>1.5k</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
           <t>R</t>
         </is>
       </c>
-      <c r="C2" t="inlineStr">
+      <c r="D2" t="inlineStr">
         <is>
           <t>1.5k</t>
         </is>
       </c>
-      <c r="D2" t="inlineStr">
+      <c r="E2" t="inlineStr">
         <is>
           <t>Resistor_SMD:R_0805_2012Metric</t>
         </is>
       </c>
-      <c r="E2" t="inlineStr">
+      <c r="F2" t="inlineStr">
         <is>
           <t>https://jlcpcb.com/api/file/downloadByFileSystemAccessId/8579706440690286592</t>
         </is>
       </c>
-      <c r="F2" t="inlineStr">
+      <c r="G2" t="inlineStr">
         <is>
           <t>-55℃~+155℃ 1.5kΩ 125mW 150V Thick Film Resistor ±1% ±100ppm/℃ 0805 Chip Resistor - Surface Mount ROHS</t>
         </is>
       </c>
-      <c r="G2" t="inlineStr"/>
-      <c r="H2" t="inlineStr">
+      <c r="H2" t="inlineStr"/>
+      <c r="I2" t="inlineStr">
         <is>
           <t>0805</t>
         </is>
       </c>
-      <c r="I2" t="inlineStr">
+      <c r="J2" t="inlineStr">
         <is>
           <t>r resistor basic</t>
         </is>
       </c>
-      <c r="J2" t="inlineStr">
+      <c r="K2" t="inlineStr">
         <is>
           <t>R_*</t>
         </is>
@@ -541,41 +551,46 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
+          <t>20k</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
           <t>R</t>
         </is>
       </c>
-      <c r="C3" t="inlineStr">
+      <c r="D3" t="inlineStr">
         <is>
           <t>20k</t>
         </is>
       </c>
-      <c r="D3" t="inlineStr">
+      <c r="E3" t="inlineStr">
         <is>
           <t>Resistor_SMD:R_0805_2012Metric</t>
         </is>
       </c>
-      <c r="E3" t="inlineStr">
+      <c r="F3" t="inlineStr">
         <is>
           <t>https://jlcpcb.com/api/file/downloadByFileSystemAccessId/8579706440690286592</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="G3" t="inlineStr">
         <is>
           <t>-55℃~+155℃ 125mW 150V 20kΩ Thick Film Resistor ±1% ±100ppm/℃ 0805 Chip Resistor - Surface Mount ROHS</t>
         </is>
       </c>
-      <c r="G3" t="inlineStr"/>
-      <c r="H3" t="inlineStr">
+      <c r="H3" t="inlineStr"/>
+      <c r="I3" t="inlineStr">
         <is>
           <t>0805</t>
         </is>
       </c>
-      <c r="I3" t="inlineStr">
+      <c r="J3" t="inlineStr">
         <is>
           <t>r resistor basic</t>
         </is>
       </c>
-      <c r="J3" t="inlineStr">
+      <c r="K3" t="inlineStr">
         <is>
           <t>R_*</t>
         </is>
